--- a/fichiers_fournisseurs/FOURNISSEUR_A-.xlsx
+++ b/fichiers_fournisseurs/FOURNISSEUR_A-.xlsx
@@ -384,7 +384,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -411,7 +411,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -419,7 +419,7 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -451,7 +451,7 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
